--- a/System Information/Import Student Template.xlsx
+++ b/System Information/Import Student Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Xampp\htdocs\Sams\System Information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BF65A3-4BC1-449C-9B78-83A6E1F8E50B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0195E2BC-EDCF-400A-BF89-D7698005BC5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>LRN</t>
   </si>
@@ -46,12 +46,6 @@
   </si>
   <si>
     <t>NUMBER</t>
-  </si>
-  <si>
-    <t>Cantero, Cyrus C.</t>
-  </si>
-  <si>
-    <t>STEM 12-A</t>
   </si>
   <si>
     <t>#888 Libis Baesa, Barangay 160, Caloocan City</t>
@@ -113,6 +107,54 @@
       </rPr>
       <t xml:space="preserve"> FILE TYPE OF EXCEL TO IMPORT MULTIPLE STUDENTS !</t>
     </r>
+  </si>
+  <si>
+    <t>Tampico, Paolo Rafael Salazar</t>
+  </si>
+  <si>
+    <t>ICT 11-A</t>
+  </si>
+  <si>
+    <t>paolo@gmail.com</t>
+  </si>
+  <si>
+    <t>Viray, John Edrich Cortez</t>
+  </si>
+  <si>
+    <t>#75 Dau St. 6th Ave., Caloocan City</t>
+  </si>
+  <si>
+    <t>viray@yahoo.com</t>
+  </si>
+  <si>
+    <t>Paredes, Monica Embate</t>
+  </si>
+  <si>
+    <t>Cantero, Cyrus Cruza</t>
+  </si>
+  <si>
+    <t>STEM 11-A</t>
+  </si>
+  <si>
+    <t>#791B P. Galauran St. 8th Ave., Caloocan City</t>
+  </si>
+  <si>
+    <t>Caloocan City</t>
+  </si>
+  <si>
+    <t>paredes@gmail.com</t>
+  </si>
+  <si>
+    <t>Belardo, Arabella Bulawan</t>
+  </si>
+  <si>
+    <t>HUMMS 11-A</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Caloocan City</t>
+  </si>
+  <si>
+    <t>belardo@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -306,7 +348,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -320,46 +362,52 @@
     <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -653,218 +701,274 @@
   <dimension ref="A1:L52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="82.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="79.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="30.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1366123456</v>
+      <c r="A2" s="4">
+        <v>136612345678</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2">
         <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G2" s="4">
         <v>9517563059</v>
       </c>
-      <c r="I2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
+      <c r="I2" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
+      <c r="A3" s="4">
+        <v>136618070392</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="4">
+        <v>9237981256</v>
+      </c>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
+      <c r="A4" s="4">
+        <v>136656190043</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="2">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="4">
+        <v>9760500860</v>
+      </c>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
+      <c r="A5" s="4">
+        <v>136622345678</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="2">
+        <v>9456723654</v>
+      </c>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="A6" s="4">
+        <v>136632345677</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="2">
+        <v>20</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="2">
+        <v>9256413897</v>
+      </c>
     </row>
     <row r="7" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+      <c r="A7" s="4"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="I7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
+      <c r="I7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+      <c r="A8" s="4"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
+      <c r="A9" s="4"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
+      <c r="A10" s="4"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+      <c r="A11" s="4"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="I11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
+      <c r="I11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -873,48 +977,48 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="I15" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
+      <c r="I15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
+      <c r="A17" s="4"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
+      <c r="A18" s="4"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -923,61 +1027,61 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
+      <c r="A19" s="4"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="I19" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
+      <c r="I19" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
+      <c r="A20" s="4"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
+      <c r="A21" s="4"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
+      <c r="A22" s="4"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
+      <c r="A23" s="4"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -986,48 +1090,48 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
+      <c r="A24" s="4"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="I24" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
+      <c r="I24" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
+      <c r="A25" s="4"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
+      <c r="A26" s="4"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
+      <c r="A27" s="4"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1036,7 +1140,7 @@
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
+      <c r="A28" s="4"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1044,14 +1148,14 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="I28" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J28" s="11"/>
       <c r="K28" s="11"/>
       <c r="L28" s="12"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
+      <c r="A29" s="4"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1059,12 +1163,12 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="I29" s="13"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="15"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
+      <c r="A30" s="4"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1072,25 +1176,25 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="I30" s="13"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="15"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
+      <c r="A31" s="4"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="18"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
+      <c r="A32" s="4"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1099,87 +1203,87 @@
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
+      <c r="A33" s="4"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="I33" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
+      <c r="I33" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
+      <c r="A34" s="4"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
+      <c r="A35" s="4"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
+      <c r="A36" s="4"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
+      <c r="A37" s="4"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
+      <c r="A38" s="4"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
+      <c r="A39" s="4"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -1188,7 +1292,7 @@
       <c r="G39" s="2"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
+      <c r="A40" s="4"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -1197,7 +1301,7 @@
       <c r="G40" s="2"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
+      <c r="A41" s="4"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -1206,7 +1310,7 @@
       <c r="G41" s="2"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
+      <c r="A42" s="4"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -1215,7 +1319,7 @@
       <c r="G42" s="2"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
+      <c r="A43" s="4"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -1224,7 +1328,7 @@
       <c r="G43" s="2"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
+      <c r="A44" s="4"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -1233,7 +1337,7 @@
       <c r="G44" s="2"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
+      <c r="A45" s="4"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -1242,7 +1346,7 @@
       <c r="G45" s="2"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
+      <c r="A46" s="4"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -1251,7 +1355,7 @@
       <c r="G46" s="2"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
+      <c r="A47" s="4"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -1260,7 +1364,7 @@
       <c r="G47" s="2"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
+      <c r="A48" s="4"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -1269,7 +1373,7 @@
       <c r="G48" s="2"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
+      <c r="A49" s="4"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -1278,7 +1382,7 @@
       <c r="G49" s="2"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
+      <c r="A50" s="4"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -1287,7 +1391,7 @@
       <c r="G50" s="2"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
+      <c r="A51" s="4"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -1296,7 +1400,7 @@
       <c r="G51" s="2"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
+      <c r="A52" s="4"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -1306,18 +1410,23 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="I15:L17"/>
-    <mergeCell ref="I19:L22"/>
     <mergeCell ref="I24:L26"/>
     <mergeCell ref="I28:L31"/>
     <mergeCell ref="I33:L38"/>
     <mergeCell ref="I2:L5"/>
     <mergeCell ref="I7:L9"/>
     <mergeCell ref="I11:L13"/>
+    <mergeCell ref="I15:L17"/>
+    <mergeCell ref="I19:L22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{59A14BE9-00CE-44DC-AC18-923139687FF4}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{80657593-70BA-411B-A859-627E773CCA3B}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{1B524AA5-6399-43E0-A6E3-824F7EE29DE0}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{34709E6C-61C7-4614-A8D0-671787A5EFAB}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{EF2902D4-5D4E-4909-81F2-1AF845C608E3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/System Information/Import Student Template.xlsx
+++ b/System Information/Import Student Template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Xampp\htdocs\Sams\System Information\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Sams\System Information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0195E2BC-EDCF-400A-BF89-D7698005BC5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54EFCE9-2616-451D-ACDF-CF1D03641AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -161,7 +161,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -701,10 +701,10 @@
   <dimension ref="A1:L52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.5703125" style="8" customWidth="1"/>
     <col min="2" max="2" width="41.42578125" style="1" customWidth="1"/>
@@ -716,7 +716,7 @@
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="16.5">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -739,7 +739,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" s="4">
         <v>136612345678</v>
       </c>
@@ -768,7 +768,7 @@
       <c r="K2" s="20"/>
       <c r="L2" s="20"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" s="4">
         <v>136618070392</v>
       </c>
@@ -795,7 +795,7 @@
       <c r="K3" s="20"/>
       <c r="L3" s="20"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" s="4">
         <v>136656190043</v>
       </c>
@@ -822,7 +822,7 @@
       <c r="K4" s="20"/>
       <c r="L4" s="20"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" s="4">
         <v>136622345678</v>
       </c>
@@ -849,7 +849,7 @@
       <c r="K5" s="20"/>
       <c r="L5" s="20"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="16.5">
       <c r="A6" s="4">
         <v>136632345677</v>
       </c>
@@ -872,7 +872,7 @@
         <v>9256413897</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="16.5" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -887,7 +887,7 @@
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" s="4"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -900,7 +900,7 @@
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" s="4"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -913,7 +913,7 @@
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="16.5">
       <c r="A10" s="4"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -926,7 +926,7 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" s="4"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -941,7 +941,7 @@
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" s="4"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -954,7 +954,7 @@
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" s="4"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -967,7 +967,7 @@
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14" s="4"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -976,7 +976,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15" s="4"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -991,7 +991,7 @@
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16" s="4"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1004,7 +1004,7 @@
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="A17" s="4"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1017,7 +1017,7 @@
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" s="4"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1026,7 +1026,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="16.5" customHeight="1">
       <c r="A19" s="4"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1041,7 +1041,7 @@
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12">
       <c r="A20" s="4"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1054,7 +1054,7 @@
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12">
       <c r="A21" s="4"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1067,7 +1067,7 @@
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12">
       <c r="A22" s="4"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1080,7 +1080,7 @@
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12">
       <c r="A23" s="4"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1089,7 +1089,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12">
       <c r="A24" s="4"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1104,7 +1104,7 @@
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12">
       <c r="A25" s="4"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1117,7 +1117,7 @@
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12">
       <c r="A26" s="4"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1130,7 +1130,7 @@
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="A27" s="4"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1139,7 +1139,7 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
       <c r="A28" s="4"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1154,7 +1154,7 @@
       <c r="K28" s="11"/>
       <c r="L28" s="12"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="A29" s="4"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1167,7 +1167,7 @@
       <c r="K29" s="14"/>
       <c r="L29" s="15"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30" s="4"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1180,7 +1180,7 @@
       <c r="K30" s="14"/>
       <c r="L30" s="15"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12">
       <c r="A31" s="4"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1193,7 +1193,7 @@
       <c r="K31" s="17"/>
       <c r="L31" s="18"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12">
       <c r="A32" s="4"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1202,7 +1202,7 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="16.5" customHeight="1">
       <c r="A33" s="4"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1217,7 +1217,7 @@
       <c r="K33" s="19"/>
       <c r="L33" s="19"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12">
       <c r="A34" s="4"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1230,7 +1230,7 @@
       <c r="K34" s="19"/>
       <c r="L34" s="19"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12">
       <c r="A35" s="4"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1243,7 +1243,7 @@
       <c r="K35" s="19"/>
       <c r="L35" s="19"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12">
       <c r="A36" s="4"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1256,7 +1256,7 @@
       <c r="K36" s="19"/>
       <c r="L36" s="19"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12">
       <c r="A37" s="4"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1269,7 +1269,7 @@
       <c r="K37" s="19"/>
       <c r="L37" s="19"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12">
       <c r="A38" s="4"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1282,7 +1282,7 @@
       <c r="K38" s="19"/>
       <c r="L38" s="19"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12">
       <c r="A39" s="4"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1291,7 +1291,7 @@
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12">
       <c r="A40" s="4"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1300,7 +1300,7 @@
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12">
       <c r="A41" s="4"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1309,7 +1309,7 @@
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12">
       <c r="A42" s="4"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1318,7 +1318,7 @@
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12">
       <c r="A43" s="4"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1327,7 +1327,7 @@
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12">
       <c r="A44" s="4"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1336,7 +1336,7 @@
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12">
       <c r="A45" s="4"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1345,7 +1345,7 @@
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12">
       <c r="A46" s="4"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1354,7 +1354,7 @@
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12">
       <c r="A47" s="4"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1363,7 +1363,7 @@
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12">
       <c r="A48" s="4"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -1372,7 +1372,7 @@
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" s="4"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1381,7 +1381,7 @@
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" s="4"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -1390,7 +1390,7 @@
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51" s="4"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1399,7 +1399,7 @@
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52" s="4"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
